--- a/tests/assets/usa/output.xlsx
+++ b/tests/assets/usa/output.xlsx
@@ -104,7 +104,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -126,10 +126,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
@@ -143,7 +139,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -165,34 +161,29 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="8">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="5899257567350812958" xfId="1" hidden="0"/>
-    <cellStyle name="-4521084446692907662" xfId="2" hidden="0"/>
-    <cellStyle name="-6030730242291293633" xfId="3" hidden="0"/>
-    <cellStyle name="8882176119614258290" xfId="4" hidden="0"/>
-    <cellStyle name="2334532152637201124" xfId="5" hidden="0"/>
-    <cellStyle name="-6014350386983161439" xfId="6" hidden="0"/>
-    <cellStyle name="3747008334172464488" xfId="7" hidden="0"/>
-    <cellStyle name="-571339747618445645" xfId="8" hidden="0"/>
-    <cellStyle name="-7323636459171894458" xfId="9" hidden="0"/>
+    <cellStyle name="3344497528240465736" xfId="1" hidden="0"/>
+    <cellStyle name="525643048571347950" xfId="2" hidden="0"/>
+    <cellStyle name="5564852812973420146" xfId="3" hidden="0"/>
+    <cellStyle name="801197359136092901" xfId="4" hidden="0"/>
+    <cellStyle name="-7015737280497765780" xfId="5" hidden="0"/>
+    <cellStyle name="-2629977508014127675" xfId="6" hidden="0"/>
+    <cellStyle name="-1258808938246778634" xfId="7" hidden="0"/>
+    <cellStyle name="8854329774650298827" xfId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -584,7 +575,7 @@
     <col width="20.8" customWidth="1" min="16" max="16"/>
     <col width="28.6" customWidth="1" min="17" max="17"/>
     <col width="20.8" customWidth="1" min="18" max="18"/>
-    <col width="27.3" customWidth="1" min="19" max="19"/>
+    <col width="40.3" customWidth="1" min="19" max="19"/>
     <col width="20.8" customWidth="1" min="20" max="20"/>
     <col width="23.4" customWidth="1" min="21" max="21"/>
     <col width="20.8" customWidth="1" min="22" max="22"/>
@@ -597,8 +588,8 @@
     <col width="22.1" customWidth="1" min="29" max="29"/>
     <col width="20.8" customWidth="1" min="30" max="30"/>
     <col width="22.1" customWidth="1" min="31" max="31"/>
-    <col width="20.8" customWidth="1" min="32" max="32"/>
-    <col width="40.3" customWidth="1" min="33" max="33"/>
+    <col width="22.1" customWidth="1" min="32" max="32"/>
+    <col width="22.1" customWidth="1" min="33" max="33"/>
     <col width="20.8" customWidth="1" min="34" max="34"/>
     <col width="22.1" customWidth="1" min="35" max="35"/>
     <col width="20.8" customWidth="1" min="36" max="36"/>
@@ -640,7 +631,7 @@
           <t>Momentum Score</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>score to Momentum Score</t>
         </is>
@@ -655,12 +646,12 @@
           <t>score to VGM Score</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Growth Score</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>score to Growth Score</t>
         </is>
@@ -675,12 +666,12 @@
           <t>score to Value Score</t>
         </is>
       </c>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>Zacks Industry Rank</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
+      <c r="P1" s="5" t="inlineStr">
         <is>
           <t>score to Zacks Industry Rank</t>
         </is>
@@ -695,14 +686,14 @@
           <t>score to Market Cap (mil)</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
-        <is>
-          <t>Avg Volume</t>
-        </is>
-      </c>
-      <c r="T1" s="6" t="inlineStr">
-        <is>
-          <t>score to Avg Volume</t>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>Avg Volume $</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>score to Avg Volume $</t>
         </is>
       </c>
       <c r="U1" s="4" t="inlineStr">
@@ -715,12 +706,12 @@
           <t>score to % Price Change (1 Week)</t>
         </is>
       </c>
-      <c r="W1" s="6" t="inlineStr">
+      <c r="W1" s="5" t="inlineStr">
         <is>
           <t>% Price Change (4 Weeks)</t>
         </is>
       </c>
-      <c r="X1" s="6" t="inlineStr">
+      <c r="X1" s="5" t="inlineStr">
         <is>
           <t>score to % Price Change (4 Weeks)</t>
         </is>
@@ -735,12 +726,12 @@
           <t>score to % Price Change (12 Weeks)</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="inlineStr">
+      <c r="AA1" s="5" t="inlineStr">
         <is>
           <t>% Price Change (YTD)</t>
         </is>
       </c>
-      <c r="AB1" s="6" t="inlineStr">
+      <c r="AB1" s="5" t="inlineStr">
         <is>
           <t>score to % Price Change (YTD)</t>
         </is>
@@ -755,32 +746,32 @@
           <t>score to Current Avg Broker Rec</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>Total score</t>
         </is>
       </c>
-      <c r="AF1" s="7" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>USA rankings</t>
         </is>
       </c>
-      <c r="AG1" s="8" t="inlineStr">
-        <is>
-          <t>score to Results</t>
-        </is>
-      </c>
-      <c r="AH1" s="8" t="inlineStr">
+      <c r="AG1" s="7" t="inlineStr">
+        <is>
+          <t>Fundamentals Ranks Sum</t>
+        </is>
+      </c>
+      <c r="AH1" s="7" t="inlineStr">
         <is>
           <t>Results rankings</t>
         </is>
       </c>
-      <c r="AI1" s="9" t="inlineStr">
+      <c r="AI1" s="8" t="inlineStr">
         <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="AJ1" s="9" t="inlineStr">
+      <c r="AJ1" s="8" t="inlineStr">
         <is>
           <t>Potential ranking</t>
         </is>
@@ -809,12 +800,12 @@
       <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="inlineStr">
@@ -825,12 +816,12 @@
       <c r="J2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -841,10 +832,10 @@
       <c r="N2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q2" s="4" t="n">
@@ -853,11 +844,11 @@
       <c r="R2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="6" t="n">
-        <v>1416542</v>
-      </c>
-      <c r="T2" s="6" t="n">
-        <v>2</v>
+      <c r="S2" s="5" t="n">
+        <v>188754221.5</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>-1.68</v>
@@ -865,10 +856,10 @@
       <c r="V2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="5" t="n">
         <v>-0.92</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="5" t="n">
         <v>5</v>
       </c>
       <c r="Y2" s="4" t="n">
@@ -877,10 +868,10 @@
       <c r="Z2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" s="6" t="n">
+      <c r="AA2" s="5" t="n">
         <v>-10.96</v>
       </c>
-      <c r="AB2" s="6" t="n">
+      <c r="AB2" s="5" t="n">
         <v>7</v>
       </c>
       <c r="AC2" s="4" t="n">
@@ -890,19 +881,19 @@
         <v>3</v>
       </c>
       <c r="AE2" s="2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF2" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>1455916.4</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ2" s="2" t="n">
         <v>0</v>
@@ -931,12 +922,12 @@
       <c r="F3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>6</v>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -947,12 +938,12 @@
       <c r="J3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M3" s="4" t="inlineStr">
@@ -963,10 +954,10 @@
       <c r="N3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="5" t="n">
         <v>6</v>
       </c>
       <c r="Q3" s="4" t="n">
@@ -975,11 +966,11 @@
       <c r="R3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="S3" s="6" t="n">
-        <v>4552900</v>
-      </c>
-      <c r="T3" s="6" t="n">
-        <v>1</v>
+      <c r="S3" s="5" t="n">
+        <v>165133683</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>-9.84</v>
@@ -987,10 +978,10 @@
       <c r="V3" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="5" t="n">
         <v>-13.15</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="X3" s="5" t="n">
         <v>8</v>
       </c>
       <c r="Y3" s="4" t="n">
@@ -999,10 +990,10 @@
       <c r="Z3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="5" t="n">
         <v>-20.23</v>
       </c>
-      <c r="AB3" s="6" t="n">
+      <c r="AB3" s="5" t="n">
         <v>8</v>
       </c>
       <c r="AC3" s="4" t="n">
@@ -1012,22 +1003,22 @@
         <v>5</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG3" s="2" t="n">
-        <v>4559293.289999999</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ3" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1053,12 +1044,12 @@
       <c r="F4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
@@ -1069,12 +1060,12 @@
       <c r="J4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="4" t="inlineStr">
@@ -1085,10 +1076,10 @@
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="5" t="n">
         <v>193</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="5" t="n">
         <v>7</v>
       </c>
       <c r="Q4" s="4" t="n">
@@ -1097,10 +1088,10 @@
       <c r="R4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" s="6" t="n">
-        <v>9005</v>
-      </c>
-      <c r="T4" s="6" t="n">
+      <c r="S4" s="5" t="n">
+        <v>18280.15</v>
+      </c>
+      <c r="T4" s="5" t="n">
         <v>9</v>
       </c>
       <c r="U4" s="4" t="n">
@@ -1109,10 +1100,10 @@
       <c r="V4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="W4" s="5" t="n">
         <v>-15.94</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="X4" s="5" t="n">
         <v>9</v>
       </c>
       <c r="Y4" s="4" t="n">
@@ -1121,10 +1112,10 @@
       <c r="Z4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="AA4" s="6" t="n">
+      <c r="AA4" s="5" t="n">
         <v>-7.73</v>
       </c>
-      <c r="AB4" s="6" t="n">
+      <c r="AB4" s="5" t="n">
         <v>5</v>
       </c>
       <c r="AC4" s="4" t="n">
@@ -1137,19 +1128,19 @@
         <v>60</v>
       </c>
       <c r="AF4" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG4" s="2" t="n">
-        <v>11389.2</v>
+        <v>38</v>
       </c>
       <c r="AH4" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI4" s="2" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1175,12 +1166,12 @@
       <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
@@ -1191,12 +1182,12 @@
       <c r="J5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M5" s="4" t="inlineStr">
@@ -1207,10 +1198,10 @@
       <c r="N5" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q5" s="4" t="n">
@@ -1219,11 +1210,11 @@
       <c r="R5" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="S5" s="6" t="n">
-        <v>101228</v>
-      </c>
-      <c r="T5" s="6" t="n">
-        <v>7</v>
+      <c r="S5" s="5" t="n">
+        <v>809824</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>-2.91</v>
@@ -1231,10 +1222,10 @@
       <c r="V5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="5" t="n">
         <v>12.52</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Y5" s="4" t="n">
@@ -1243,10 +1234,10 @@
       <c r="Z5" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="5" t="n">
         <v>-37.65</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="5" t="n">
         <v>9</v>
       </c>
       <c r="AC5" s="4" t="n">
@@ -1256,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="AE5" s="2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG5" s="2" t="n">
-        <v>101359.31</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI5" s="2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1297,12 +1288,12 @@
       <c r="F6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="5" t="n">
         <v>6</v>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -1313,12 +1304,12 @@
       <c r="J6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M6" s="4" t="inlineStr">
@@ -1329,10 +1320,10 @@
       <c r="N6" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="Q6" s="4" t="n">
@@ -1341,11 +1332,11 @@
       <c r="R6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="6" t="n">
-        <v>233696</v>
-      </c>
-      <c r="T6" s="6" t="n">
-        <v>5</v>
+      <c r="S6" s="5" t="n">
+        <v>10233547.84</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="U6" s="4" t="n">
         <v>2.79</v>
@@ -1353,10 +1344,10 @@
       <c r="V6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="5" t="n">
         <v>3.4</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Y6" s="4" t="n">
@@ -1365,10 +1356,10 @@
       <c r="Z6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AA6" s="6" t="n">
+      <c r="AA6" s="5" t="n">
         <v>-1.44</v>
       </c>
-      <c r="AB6" s="6" t="n">
+      <c r="AB6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="AC6" s="4" t="n">
@@ -1378,22 +1369,22 @@
         <v>0</v>
       </c>
       <c r="AE6" s="2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="2" t="n">
-        <v>361186.92</v>
+        <v>13</v>
       </c>
       <c r="AH6" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="2" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AJ6" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1419,12 +1410,12 @@
       <c r="F7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="5" t="n">
         <v>9</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
@@ -1435,12 +1426,12 @@
       <c r="J7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="6" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -1451,10 +1442,10 @@
       <c r="N7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="5" t="n">
         <v>222</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="5" t="n">
         <v>9</v>
       </c>
       <c r="Q7" s="4" t="n">
@@ -1463,10 +1454,10 @@
       <c r="R7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="S7" s="6" t="n">
-        <v>62920</v>
-      </c>
-      <c r="T7" s="6" t="n">
+      <c r="S7" s="5" t="n">
+        <v>164221.2</v>
+      </c>
+      <c r="T7" s="5" t="n">
         <v>8</v>
       </c>
       <c r="U7" s="4" t="n">
@@ -1475,10 +1466,10 @@
       <c r="V7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="W7" s="5" t="n">
         <v>-4.74</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="X7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="Y7" s="4" t="n">
@@ -1487,10 +1478,10 @@
       <c r="Z7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="5" t="n">
         <v>-10.92</v>
       </c>
-      <c r="AB7" s="6" t="n">
+      <c r="AB7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="AC7" s="4" t="n">
@@ -1503,16 +1494,16 @@
         <v>80</v>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" s="2" t="n">
-        <v>62961.79</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI7" s="2" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="AJ7" s="2" t="n">
         <v>9</v>
@@ -1541,12 +1532,12 @@
       <c r="F8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
@@ -1557,12 +1548,12 @@
       <c r="J8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M8" s="4" t="inlineStr">
@@ -1573,10 +1564,10 @@
       <c r="N8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="n">
@@ -1585,10 +1576,10 @@
       <c r="R8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="6" t="n">
-        <v>27406154</v>
-      </c>
-      <c r="T8" s="6" t="n">
+      <c r="S8" s="5" t="n">
+        <v>352991263.52</v>
+      </c>
+      <c r="T8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U8" s="4" t="n">
@@ -1597,10 +1588,10 @@
       <c r="V8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="W8" s="5" t="n">
         <v>-10.99</v>
       </c>
-      <c r="X8" s="6" t="n">
+      <c r="X8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="Y8" s="4" t="n">
@@ -1609,10 +1600,10 @@
       <c r="Z8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="AA8" s="6" t="n">
+      <c r="AA8" s="5" t="n">
         <v>1.26</v>
       </c>
-      <c r="AB8" s="6" t="n">
+      <c r="AB8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="AC8" s="4" t="n">
@@ -1628,13 +1619,13 @@
         <v>3</v>
       </c>
       <c r="AG8" s="2" t="n">
-        <v>27414524.75</v>
+        <v>25</v>
       </c>
       <c r="AH8" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI8" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="2" t="n">
         <v>0</v>
@@ -1663,12 +1654,12 @@
       <c r="F9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
@@ -1679,12 +1670,12 @@
       <c r="J9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="6" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
@@ -1695,10 +1686,10 @@
       <c r="N9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="Q9" s="4" t="n">
@@ -1707,11 +1698,11 @@
       <c r="R9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="S9" s="6" t="n">
-        <v>412547</v>
-      </c>
-      <c r="T9" s="6" t="n">
-        <v>3</v>
+      <c r="S9" s="5" t="n">
+        <v>5457996.810000001</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="U9" s="4" t="n">
         <v>28.2</v>
@@ -1719,10 +1710,10 @@
       <c r="V9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="5" t="n">
         <v>45.07</v>
       </c>
-      <c r="X9" s="6" t="n">
+      <c r="X9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Y9" s="4" t="n">
@@ -1731,10 +1722,10 @@
       <c r="Z9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AA9" s="6" t="n">
+      <c r="AA9" s="5" t="n">
         <v>10.71</v>
       </c>
-      <c r="AB9" s="6" t="n">
+      <c r="AB9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AC9" s="4" t="n">
@@ -1744,22 +1735,22 @@
         <v>7</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="2" t="n">
-        <v>413024.11</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="AI9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ9" s="2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1785,12 +1776,12 @@
       <c r="F10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
@@ -1801,12 +1792,12 @@
       <c r="J10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M10" s="4" t="inlineStr">
@@ -1817,10 +1808,10 @@
       <c r="N10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="5" t="n">
         <v>4</v>
       </c>
       <c r="Q10" s="4" t="n">
@@ -1829,11 +1820,11 @@
       <c r="R10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="S10" s="6" t="n">
-        <v>124747</v>
-      </c>
-      <c r="T10" s="6" t="n">
-        <v>6</v>
+      <c r="S10" s="5" t="n">
+        <v>243256.65</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="U10" s="4" t="n">
         <v>-8.02</v>
@@ -1841,10 +1832,10 @@
       <c r="V10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="W10" s="5" t="n">
         <v>1.04</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="X10" s="5" t="n">
         <v>4</v>
       </c>
       <c r="Y10" s="4" t="n">
@@ -1853,10 +1844,10 @@
       <c r="Z10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="AA10" s="6" t="n">
+      <c r="AA10" s="5" t="n">
         <v>3.17</v>
       </c>
-      <c r="AB10" s="6" t="n">
+      <c r="AB10" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AC10" s="4" t="n">
@@ -1866,22 +1857,22 @@
         <v>6</v>
       </c>
       <c r="AE10" s="2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG10" s="2" t="n">
-        <v>124769.03</v>
+        <v>37</v>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1907,12 +1898,12 @@
       <c r="F11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
@@ -1923,12 +1914,12 @@
       <c r="J11" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="K11" s="6" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M11" s="4" t="inlineStr">
@@ -1939,10 +1930,10 @@
       <c r="N11" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="4" t="n">
@@ -1951,11 +1942,11 @@
       <c r="R11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="S11" s="6" t="n">
-        <v>331393</v>
-      </c>
-      <c r="T11" s="6" t="n">
-        <v>4</v>
+      <c r="S11" s="5" t="n">
+        <v>32880813.46</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="U11" s="4" t="n">
         <v>-0.04</v>
@@ -1963,10 +1954,10 @@
       <c r="V11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="W11" s="5" t="n">
         <v>4.55</v>
       </c>
-      <c r="X11" s="6" t="n">
+      <c r="X11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Y11" s="4" t="n">
@@ -1975,10 +1966,10 @@
       <c r="Z11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" s="6" t="n">
+      <c r="AA11" s="5" t="n">
         <v>31.73</v>
       </c>
-      <c r="AB11" s="6" t="n">
+      <c r="AB11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AC11" s="4" t="n">
@@ -1988,22 +1979,22 @@
         <v>0</v>
       </c>
       <c r="AE11" s="2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="2" t="n">
-        <v>336823.7</v>
+        <v>11</v>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
